--- a/medicine/Psychotrope/Belgh_Brasse/Belgh_Brasse.xlsx
+++ b/medicine/Psychotrope/Belgh_Brasse/Belgh_Brasse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brasserie Belgh Brasse est située à Laval au Québec.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entreprise fut fondée en 2003 par Jean-Louis Marcoux, un maître-brasseur originaire de Belgique. L’entreprise commercialisait à ce moment la bière 8. En 2007, Jean-Louis Marcoux, entrepreneur dévoué et passionné par le brassage de la bière, réunit des investisseurs privés pour faire croître la brasserie.
 </t>
@@ -542,7 +556,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">8
 La première bière fut la « 8 », une bière de style belge, fermentée en bouteille.
@@ -580,7 +596,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>MONS WITTE D'ABBAYE 
 Médaille d'or dans la catégorie White / Wit Beer du 2013 World Beer Championships.
@@ -624,7 +642,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">http://www.belghbrasse.com 
 http://www.monsbeer.com/
